--- a/Practice/1-Student-Resources/02-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/Practice/1-Student-Resources/02-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\1\Activities\08-Stu_GradeBook\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\Boot Camp\Module 1\kickstarter-analysis\Practice\1-Student-Resources\02-Stu_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A6147D-5965-4719-8B95-0C04B1B6DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +507,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +563,10 @@
       <c r="E2" s="2">
         <v>56</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>78.75</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -569,7 +584,10 @@
       <c r="E3" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="0">AVERAGE(B3:E3)</f>
+        <v>74.25</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -587,7 +605,10 @@
       <c r="E4" s="2">
         <v>87</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -605,7 +626,10 @@
       <c r="E5" s="2">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>57.75</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -623,7 +647,10 @@
       <c r="E6" s="2">
         <v>85</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>80.25</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -641,7 +668,10 @@
       <c r="E7" s="2">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -659,7 +689,10 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -677,7 +710,10 @@
       <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -695,7 +731,10 @@
       <c r="E10" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>94.75</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -713,7 +752,10 @@
       <c r="E11" s="2">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>60.25</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -731,7 +773,10 @@
       <c r="E12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -749,7 +794,10 @@
       <c r="E13" s="2">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>59.5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -767,7 +815,10 @@
       <c r="E14" s="2">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>49.25</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -785,7 +836,10 @@
       <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -803,7 +857,10 @@
       <c r="E16" s="2">
         <v>73</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>75.75</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -821,7 +878,10 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>71.75</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -839,7 +899,10 @@
       <c r="E18" s="2">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -857,7 +920,10 @@
       <c r="E19" s="2">
         <v>89</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -875,7 +941,10 @@
       <c r="E20" s="2">
         <v>82</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -893,7 +962,10 @@
       <c r="E21" s="2">
         <v>87</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>74.75</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -911,7 +983,10 @@
       <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -929,7 +1004,10 @@
       <c r="E23" s="2">
         <v>48</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>57.75</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -947,7 +1025,10 @@
       <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>58.75</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -965,7 +1046,10 @@
       <c r="E25" s="2">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>69.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
